--- a/public/template/transaction/Template_Export_Transaction.xlsx
+++ b/public/template/transaction/Template_Export_Transaction.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadmukhtar/Projects/rpc-be/public/template/transaction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B950A8-2438-7B44-8363-1A75098AC4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893F2DCE-E42C-244D-AED3-75877E81A004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1260" windowWidth="27640" windowHeight="16640" xr2:uid="{0674CD87-AF00-EC40-A640-CA30B1852CB8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Partner" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Transaksi" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,34 +44,34 @@
     <t>No</t>
   </si>
   <si>
-    <t>Registration No</t>
-  </si>
-  <si>
-    <t>Location Name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Customer Group</t>
-  </si>
-  <si>
-    <t>Service Cateogry</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>PIC Doctor</t>
-  </si>
-  <si>
-    <t>Created By</t>
-  </si>
-  <si>
-    <t>Created At</t>
+    <t>No Registrasi</t>
+  </si>
+  <si>
+    <t>Lokasi</t>
+  </si>
+  <si>
+    <t>Nama Depan</t>
+  </si>
+  <si>
+    <t>Grup Pelanggan</t>
+  </si>
+  <si>
+    <t>Kategori Layanan</t>
+  </si>
+  <si>
+    <t>Tanggal Mulai</t>
+  </si>
+  <si>
+    <t>Tanggal Berakhir</t>
+  </si>
+  <si>
+    <t>PIC Dokter</t>
+  </si>
+  <si>
+    <t>Dibuat Oleh</t>
+  </si>
+  <si>
+    <t>Dibuat Pada</t>
   </si>
 </sst>
 </file>
@@ -453,9 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0BD312-7EF2-F445-B81C-635468D350A0}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
